--- a/bisulfide_analysis/WGBS/analyses/DML_locations_genome_feature.xlsx
+++ b/bisulfide_analysis/WGBS/analyses/DML_locations_genome_feature.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Dropbox\UW\Postdoc\[2021] ploidy_gigas_desiccation\project-gigas_ploidy\bisulfide_analysis\WGBS\analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83E24195-7388-4DCA-967E-4930B454FE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118EDD04-69FF-470B-BABA-5CA888BBF082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18103" xr2:uid="{6D26FA60-A9F2-42A9-87BF-F475A2C210D1}"/>
+    <workbookView xWindow="36720" yWindow="17" windowWidth="20674" windowHeight="17897" xr2:uid="{6D26FA60-A9F2-42A9-87BF-F475A2C210D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>exonUTR</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>(x10), 50%</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>all_CpG</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -424,21 +433,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E2CC68-15EC-45D9-B80D-5EBBE48143A7}">
-  <dimension ref="B1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.3046875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" style="1"/>
+    <col min="1" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.84375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
@@ -446,8 +460,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1">
@@ -457,8 +471,8 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1">
@@ -468,8 +482,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -479,8 +493,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -490,8 +504,8 @@
         <v>524</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -501,8 +515,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -512,8 +526,8 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1">
@@ -523,8 +537,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1">
@@ -534,8 +548,8 @@
         <v>577</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
@@ -545,8 +559,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
@@ -556,8 +570,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -567,8 +581,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -578,8 +592,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
@@ -587,6 +601,20 @@
       </c>
       <c r="D14" s="1">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>1926243</v>
+      </c>
+      <c r="C15" s="1">
+        <v>60721</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
